--- a/biology/Zoologie/Bassaniana/Bassaniana.xlsx
+++ b/biology/Zoologie/Bassaniana/Bassaniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bassaniana est un genre d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bassaniana est un genre d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 05/12/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 05/12/2021) :
 Bassaniana baudueri (Simon, 1877)
 Bassaniana birudis Im, Kim &amp; Lee, 2021
 Bassaniana decorata (Karsch, 1879)
@@ -579,9 +595,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrite sous le nom Bassania par O. Pickard-Cambridge en 1898. Le nom Bassania Pickard-Cambridge 1898 étant préoccupé par Bassania Walker, 1860, il est renommé par Strand en 1928[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrite sous le nom Bassania par O. Pickard-Cambridge en 1898. Le nom Bassania Pickard-Cambridge 1898 étant préoccupé par Bassania Walker, 1860, il est renommé par Strand en 1928.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1928 : « Miscellanea nomenclatorica zoologica et palaeontologica, I-II. » Archiv für Naturgeschichte, vol. 92, no A8, p. 30-75.
 O. Pickard-Cambridge, 1898 : « Arachnida. Araneida. » Biologia Centrali-Americana, Zoology, vol. 1, p. 233-288 (texte intégral).</t>
